--- a/outcome/appendix/data/PHSMs/Japanese encephalitis.xlsx
+++ b/outcome/appendix/data/PHSMs/Japanese encephalitis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,19 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
     <t xml:space="preserve">乙型脑炎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -403,6 +415,12 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -416,10 +434,16 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.54425965774274</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -434,10 +458,16 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.02066494767203</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -452,10 +482,16 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.04359473526335</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -470,10 +506,16 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.27830692094014</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -488,10 +530,16 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.25964979132843</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -506,10 +554,16 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.8381646279005</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -524,10 +578,16 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>69</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.127983307039372</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -542,10 +602,16 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>30</v>
+      </c>
+      <c r="I9" t="n">
+        <v>93.0816749728062</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -560,10 +626,16 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>137</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-63.3432857061388</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +650,16 @@
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>42</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-5.40151842557459</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +674,16 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>10</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.27896748737516</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -614,10 +698,16 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6.83399108215579</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -632,10 +722,16 @@
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10.3253009901172</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -650,10 +746,16 @@
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>12.9884886034905</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -668,10 +770,16 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12.2479806900378</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -686,10 +794,16 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13.1944313691842</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -704,10 +818,16 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10.882963508274</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -722,10 +842,16 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>10</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7.5220591197992</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -740,10 +866,16 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>17</v>
+      </c>
+      <c r="I20" t="n">
+        <v>26.9379307647466</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -758,10 +890,16 @@
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>72</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8.38482667957666</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -776,10 +914,16 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
         <v>63</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-2.84863360031426</v>
+      </c>
+      <c r="J22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -794,10 +938,16 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>39</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-3.11883070181759</v>
+      </c>
+      <c r="J23" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -812,10 +962,16 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>14</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6.7762965750335</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -830,10 +986,16 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>13.1161386477904</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -848,10 +1010,16 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>9</v>
+      </c>
+      <c r="I26" t="n">
+        <v>7.14320382216059</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -866,10 +1034,16 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14.2930637779401</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -884,10 +1058,16 @@
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
         <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12.7613227682209</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -902,10 +1082,16 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>15.1209794920473</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -920,10 +1106,16 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>15.0391699919151</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -938,10 +1130,16 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>7</v>
+      </c>
+      <c r="I31" t="n">
+        <v>10.3056595417036</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -956,10 +1154,16 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
         <v>13</v>
+      </c>
+      <c r="I32" t="n">
+        <v>17.9565855640911</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -974,10 +1178,16 @@
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>57</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-4.04559376857839</v>
+      </c>
+      <c r="J33" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -992,10 +1202,16 @@
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>53</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-6.10555213943327</v>
+      </c>
+      <c r="J34" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1010,10 +1226,16 @@
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
         <v>27</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.89613895293124</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1028,10 +1250,16 @@
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>21.4527805449391</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
